--- a/result/BO_TransformerCNN_metrics.xlsx
+++ b/result/BO_TransformerCNN_metrics.xlsx
@@ -482,25 +482,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01900923550201802</v>
+        <v>0.0214552994158015</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01532223168760538</v>
+        <v>0.01952763460576534</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01300185918807983</v>
+        <v>0.007757306098937988</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01408880203962326</v>
+        <v>0.01289266068488359</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01125079113990068</v>
+        <v>0.008888267911970615</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9915984869003296</v>
+        <v>0.989309942094156</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.001587301587301587</v>
       </c>
     </row>
     <row r="3">
@@ -510,25 +510,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02325551963947895</v>
+        <v>0.02477023315916587</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02316566556692123</v>
+        <v>0.01908494159579277</v>
       </c>
       <c r="D3" t="n">
-        <v>0.009017646312713623</v>
+        <v>0.0203193724155426</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0141149265691638</v>
+        <v>0.02047267369925976</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00204230030067265</v>
+        <v>0.01579016633331776</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9919081926345825</v>
+        <v>0.9908272657019163</v>
       </c>
       <c r="H3" t="n">
-        <v>0.003164556962025316</v>
+        <v>0.006299212598425197</v>
       </c>
     </row>
     <row r="4">
@@ -538,25 +538,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01510538137504111</v>
+        <v>0.01424248272159034</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01382012665271759</v>
+        <v>0.01344776153564453</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01060804724693298</v>
+        <v>0.008576095104217529</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01149796415120363</v>
+        <v>0.01044431421905756</v>
       </c>
       <c r="F4" t="n">
-        <v>0.006097264587879181</v>
+        <v>0.004691057838499546</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9946781396865845</v>
+        <v>0.9952751021793547</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002844950213371266</v>
+        <v>0.00424929178470255</v>
       </c>
     </row>
     <row r="5">
@@ -566,25 +566,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01898821959719</v>
+        <v>0.01669306728907086</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01743953302502632</v>
+        <v>0.01501141395419836</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01505371928215027</v>
+        <v>0.01251626014709473</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01554667204618454</v>
+        <v>0.01355945691466331</v>
       </c>
       <c r="F5" t="n">
-        <v>0.007511007599532604</v>
+        <v>0.00730177853256464</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9912806749343872</v>
+        <v>0.9932702902956262</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001344086021505376</v>
+        <v>0.002677376171352075</v>
       </c>
     </row>
   </sheetData>
